--- a/similarities/split_global/harmonic_similarity_timestamps_111.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,414 +484,444 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min'], ['A:min', 'E:maj', 'A:min'], ['G:7', 'C:maj', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000'), ('0:00:13.500000', '0:00:21.900000'), ('0:00:40.460000', '0:00:47.160000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:25.800000', '0:00:31.820000'), ('0:00:09.600000', '0:00:13.300000'), ('0:00:14.620000', '0:00:22.040000'), ('0:00:38.620000', '0:00:40.980000'), ('0:00:43.320000', '0:00:45.080000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=40.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=38.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:40.020000', '0:00:45.900000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=40.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:07.480000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.820000', '0:00:29.100000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:10.400000', '0:00:20.240000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=10.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:43.610000', '0:00:45.410000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:16.050000')]</t>
+          <t>('0:00:41.520000', '0:00:46.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.420000', '0:01:11.700000')]</t>
+          <t>('0:01:07.560000', '0:01:14.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -900,286 +930,308 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:51.641107', '0:00:57.139232')]</t>
+          <t>('0:00:07.540000', '0:00:20.160000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=51.641107']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:26.980000', '0:00:45.840000'), ('0:00:00.380000', '0:00:06.260000'), ('0:00:53.460000', '0:01:02.740000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:08.200000', '0:00:12.660000'), ('0:00:32.060000', '0:00:33.280000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=26.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=53.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
+          <t>('0:01:06.100000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:24.520000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:17.020000', '0:00:23.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=17.02</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
